--- a/环境及部署情况整理.xlsx
+++ b/环境及部署情况整理.xlsx
@@ -258,7 +258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="152">
   <si>
     <t>开发环境</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -672,6 +672,178 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>静态资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dubbo-server服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动dubbo-server服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险dubbo-server服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户pc端服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户手机端服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信相关服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M站服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务间调度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solr搜索引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/opt/soft/tomcat        </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/opt/web/sold-qa-service     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车大师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车大师服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.12.102(8084 8184 8284)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.12.102(8085 8185 8285)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.12.102(8086 8186 8286)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.12.103(8088 8188 8288)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.12.103(8087)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.12.102(8083 8183 8283)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/opt/web/sold-business </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M站域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.12.102(8081 8181 8281)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支部署情况：                          zookeeper:172.16.12.104:2181      redis:172.16.12.104:6380                    启停脚本：/opt/soft/resin/bin/sold-branches-sh/                                 static（102）： /opt/web/static_branches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.crmservice.tuanche.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户pc端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2.yangche.tuanche.com.conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名配置信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service服务（103）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity-service服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营后台（102）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代表已停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代表运行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>刘凯凯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -680,175 +852,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>静态资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dubbo-server服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动dubbo-server服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保险dubbo-server服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营后台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户pc端服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户手机端服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信相关服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M站服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务间调度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引配置文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>solr搜索引擎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/opt/soft/tomcat        </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/opt/web/sold-qa-service     </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车大师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车大师服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.12.102(8084 8184 8284)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.12.102(8085 8185 8285)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.12.102(8086 8186 8286)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.12.103(8088 8188 8288)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.12.103(8087)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.12.102(8083 8183 8283)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">/opt/web/sold-business </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M站域名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.12.102(8081 8181 8281)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分支部署情况：                          zookeeper:172.16.12.104:2181      redis:172.16.12.104:6380                    启停脚本：/opt/soft/resin/bin/sold-branches-sh/                                 static（102）： /opt/web/static_branches</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test.crmservice.tuanche.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户pc端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2.yangche.tuanche.com.conf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>域名配置信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>service服务（103）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity-service服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营后台（102）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代表已停止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代表运行中</t>
+    <t>引用20055</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用20056</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1360,7 +1368,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1380,7 +1388,7 @@
         <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>70</v>
@@ -1400,7 +1408,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1422,7 +1430,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>79</v>
@@ -1445,7 +1453,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
@@ -1466,7 +1474,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>27</v>
@@ -1487,7 +1495,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>30</v>
@@ -1508,7 +1516,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>32</v>
@@ -1529,13 +1537,13 @@
         <v>16</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>58</v>
@@ -1550,13 +1558,13 @@
         <v>15</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>59</v>
@@ -1571,13 +1579,13 @@
         <v>18</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>60</v>
@@ -1592,13 +1600,13 @@
         <v>20</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>61</v>
@@ -1613,13 +1621,13 @@
         <v>22</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>62</v>
@@ -1634,13 +1642,13 @@
         <v>26</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>64</v>
@@ -1655,7 +1663,7 @@
         <v>35</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>34</v>
@@ -1676,7 +1684,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>36</v>
@@ -1693,10 +1701,10 @@
         <v>38</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>50</v>
@@ -1712,7 +1720,7 @@
         <v>51</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>39</v>
@@ -1731,7 +1739,7 @@
         <v>80</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>81</v>
@@ -1763,7 +1771,7 @@
         <v>52</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>42</v>
@@ -1782,7 +1790,7 @@
         <v>44</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>43</v>
@@ -1801,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>13</v>
@@ -1822,13 +1830,13 @@
         <v>24</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>63</v>
@@ -1843,10 +1851,10 @@
         <v>29</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>47</v>
@@ -1861,7 +1869,7 @@
     </row>
     <row r="27" spans="1:7" ht="94.5">
       <c r="A27" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>101</v>
@@ -1876,15 +1884,15 @@
         <v>104</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B28" s="23">
         <v>20073</v>
@@ -1898,12 +1906,14 @@
       <c r="E28" s="22">
         <v>20043</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="22">
+        <v>20033</v>
+      </c>
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B29" s="23">
         <v>20075</v>
@@ -1915,7 +1925,9 @@
       <c r="E29" s="22">
         <v>20045</v>
       </c>
-      <c r="F29" s="21"/>
+      <c r="F29" s="21" t="s">
+        <v>150</v>
+      </c>
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7">
@@ -1932,12 +1944,14 @@
       <c r="E30" s="22">
         <v>20046</v>
       </c>
-      <c r="F30" s="21"/>
+      <c r="F30" s="21" t="s">
+        <v>151</v>
+      </c>
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="23">
@@ -1998,7 +2012,9 @@
       <c r="E34" s="22">
         <v>4085</v>
       </c>
-      <c r="F34" s="21"/>
+      <c r="F34" s="22">
+        <v>3085</v>
+      </c>
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7">
@@ -2032,13 +2048,13 @@
     <row r="38" spans="1:7">
       <c r="A38" s="24"/>
       <c r="B38" s="26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="25"/>
       <c r="B39" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2067,7 +2083,7 @@
   <sheetData>
     <row r="1" spans="3:6">
       <c r="C1" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>83</v>
@@ -2101,7 +2117,7 @@
     </row>
     <row r="4" spans="3:6">
       <c r="C4" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>95</v>
@@ -2140,7 +2156,7 @@
     <row r="7" spans="3:6">
       <c r="C7" s="19"/>
       <c r="D7" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>89</v>
@@ -2152,7 +2168,7 @@
     <row r="8" spans="3:6">
       <c r="C8" s="19"/>
       <c r="D8" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
